--- a/public/Sample_Artifacts/2025-05-26_Phish-1001-LI-Campaign-Data.xlsx
+++ b/public/Sample_Artifacts/2025-05-26_Phish-1001-LI-Campaign-Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/VSCode/accrp/csf_profile/public/Sample_Artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/CSF/csf_profile/public/Sample_Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D519127B-5233-D44F-B228-5C7B7D99ADBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0532110D-86B8-2C40-AF9A-AB9BE546182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34520" yWindow="820" windowWidth="29860" windowHeight="16940" xr2:uid="{8DB84ACF-B68D-344A-9921-BD82087C7658}"/>
+    <workbookView xWindow="-34520" yWindow="-1240" windowWidth="29860" windowHeight="19000" activeTab="6" xr2:uid="{8DB84ACF-B68D-344A-9921-BD82087C7658}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="7" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="744">
   <si>
     <t>First Name</t>
   </si>
@@ -2305,9 +2305,6 @@
   </si>
   <si>
     <t>Send phish</t>
-  </si>
-  <si>
-    <t>Report to IT Security Management</t>
   </si>
   <si>
     <t>Report to Executive Leadership Team</t>
@@ -3672,21 +3669,11 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="48">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" xfId="57" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="57"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="47"/>
-    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="47" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="37" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="31" fillId="37" borderId="15" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3711,10 +3698,20 @@
     <xf numFmtId="0" fontId="32" fillId="38" borderId="17" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="46" borderId="0" xfId="57" applyFill="1"/>
-    <xf numFmtId="0" fontId="47" fillId="46" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="48" fillId="46" borderId="0" xfId="57" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="57"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="48" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="47"/>
+    <xf numFmtId="165" fontId="44" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="47" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="47" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="31" fillId="37" borderId="14" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -14393,7 +14390,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F57F674-D738-2F4B-AA75-983F4A9BF924}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F57F674-D738-2F4B-AA75-983F4A9BF924}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14457,7 +14454,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B5F9963-9FCC-254E-9D61-845DD964F1DC}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0B5F9963-9FCC-254E-9D61-845DD964F1DC}" name="PivotTable6" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M3:N6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14521,7 +14518,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6B2A47B-7FA4-964E-8E0E-721BF3129684}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6B2A47B-7FA4-964E-8E0E-721BF3129684}" name="PivotTable5" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J3:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14585,7 +14582,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56340F09-01D2-7E4F-8218-4511B64F325C}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56340F09-01D2-7E4F-8218-4511B64F325C}" name="PivotTable4" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G3:H6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14649,7 +14646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44128A3E-D263-BC4C-ACDD-DAC790E20C55}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{44128A3E-D263-BC4C-ACDD-DAC790E20C55}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -14713,192 +14710,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3419A17B-D69F-5B46-B492-63639091CAE4}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
-  <location ref="A27:H48" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="21">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="15" showAll="0"/>
-    <pivotField numFmtId="20" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item sd="0" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item sd="0" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item m="1" x="8"/>
-        <item m="1" x="7"/>
-        <item x="2"/>
-        <item m="1" x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item m="1" x="14"/>
-        <item x="0"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="5"/>
-        <item x="8"/>
-        <item m="1" x="13"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="19"/>
-    <field x="20"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="14"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="2">
-    <field x="12"/>
-    <field x="16"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Email" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6A87895-F4BF-4C47-97B4-AABD23A2A4A4}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D6A87895-F4BF-4C47-97B4-AABD23A2A4A4}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
   <location ref="A3:H24" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15618,8 +15430,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C81680E-04D6-3B47-B2A9-E3A166FF21EF}" name="PivotTable9" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7C81680E-04D6-3B47-B2A9-E3A166FF21EF}" name="PivotTable9" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
   <location ref="A75:H96" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15815,8 +15627,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDFB21B3-690F-5C45-9793-CC9A63BC25C1}" name="PivotTable8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CDFB21B3-690F-5C45-9793-CC9A63BC25C1}" name="PivotTable8" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
   <location ref="A51:G72" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="21">
     <pivotField showAll="0"/>
@@ -15973,6 +15785,191 @@
     </i>
     <i>
       <x v="1"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Email" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3419A17B-D69F-5B46-B492-63639091CAE4}" name="PivotTable7" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Leader">
+  <location ref="A27:H48" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="21">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="15" showAll="0"/>
+    <pivotField numFmtId="20" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item sd="0" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item sd="0" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="2"/>
+        <item m="1" x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item m="1" x="14"/>
+        <item x="0"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item m="1" x="13"/>
+        <item m="1" x="12"/>
+        <item m="1" x="15"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="19"/>
+    <field x="20"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="12"/>
+    <field x="16"/>
+  </colFields>
+  <colItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
     <i r="1">
@@ -16462,229 +16459,229 @@
   </sheetPr>
   <dimension ref="A1:W204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="123" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" style="123" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="123" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="120"/>
-    <col min="7" max="7" width="10.83203125" style="120" customWidth="1"/>
-    <col min="8" max="23" width="10.83203125" style="120"/>
-    <col min="24" max="16384" width="10.83203125" style="123"/>
+    <col min="1" max="1" width="17.83203125" style="108" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" style="108" customWidth="1"/>
+    <col min="3" max="3" width="39.33203125" style="108" customWidth="1"/>
+    <col min="4" max="6" width="10.83203125" style="105"/>
+    <col min="7" max="7" width="10.83203125" style="105" customWidth="1"/>
+    <col min="8" max="23" width="10.83203125" style="105"/>
+    <col min="24" max="16384" width="10.83203125" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:2" s="120" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="B7" s="121"/>
-    </row>
-    <row r="8" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:2" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="122"/>
-    </row>
-    <row r="28" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:1" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="120" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:2" s="105" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="B7" s="106"/>
+    </row>
+    <row r="8" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:2" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="107"/>
+    </row>
+    <row r="28" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:1" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="105" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42121,16 +42118,16 @@
       <c r="H4" t="s">
         <v>612</v>
       </c>
-      <c r="J4" s="105" t="s">
+      <c r="J4" s="109" t="s">
         <v>689</v>
       </c>
-      <c r="K4" s="105" t="s">
+      <c r="K4" s="109" t="s">
         <v>716</v>
       </c>
-      <c r="L4" s="105" t="s">
+      <c r="L4" s="109" t="s">
         <v>717</v>
       </c>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="109" t="s">
         <v>718</v>
       </c>
     </row>
@@ -42152,10 +42149,10 @@
         <v>27</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="N5" s="105"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="109"/>
+      <c r="N5" s="109"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
@@ -44264,10 +44261,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL27"/>
+  <dimension ref="A1:BL26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BN23" sqref="BN23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -44287,66 +44284,66 @@
     <row r="1" spans="1:64" ht="90" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="24"/>
       <c r="B1" s="96" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C1" s="97"/>
       <c r="D1" s="98"/>
       <c r="E1" s="99"/>
       <c r="F1" s="100"/>
       <c r="H1" s="39"/>
-      <c r="I1" s="106" t="s">
+      <c r="I1" s="118" t="s">
         <v>719</v>
       </c>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="107"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
       <c r="P1" s="26"/>
-      <c r="Q1" s="108">
+      <c r="Q1" s="120">
         <v>45785</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="101" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C2" s="102"/>
       <c r="D2" s="28"/>
       <c r="E2" s="29"/>
       <c r="F2" s="28"/>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="118" t="s">
         <v>720</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="26"/>
-      <c r="Q2" s="110">
+      <c r="Q2" s="122">
         <v>1</v>
       </c>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
+      <c r="R2" s="121"/>
+      <c r="S2" s="121"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="121"/>
+      <c r="V2" s="121"/>
+      <c r="W2" s="121"/>
+      <c r="X2" s="121"/>
+      <c r="Y2" s="121"/>
+      <c r="Z2" s="121"/>
     </row>
     <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="103"/>
@@ -44356,102 +44353,102 @@
       <c r="A4" s="24"/>
       <c r="B4" s="31"/>
       <c r="E4" s="32"/>
-      <c r="I4" s="111">
+      <c r="I4" s="123">
         <f>I5</f>
         <v>45782</v>
       </c>
-      <c r="J4" s="112"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112">
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110">
         <f>P5</f>
         <v>45789</v>
       </c>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112">
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110">
         <f>W5</f>
         <v>45796</v>
       </c>
-      <c r="X4" s="112"/>
-      <c r="Y4" s="112"/>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="112"/>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112">
+      <c r="X4" s="110"/>
+      <c r="Y4" s="110"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="110"/>
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110">
         <f>AD5</f>
         <v>45803</v>
       </c>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="112"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="112">
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="110"/>
+      <c r="AG4" s="110"/>
+      <c r="AH4" s="110"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="110"/>
+      <c r="AK4" s="110">
         <f>AK5</f>
         <v>45810</v>
       </c>
-      <c r="AL4" s="112"/>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="112"/>
-      <c r="AP4" s="112"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="112">
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="110"/>
+      <c r="AO4" s="110"/>
+      <c r="AP4" s="110"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="110">
         <f>AR5</f>
         <v>45817</v>
       </c>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="112"/>
-      <c r="AW4" s="112"/>
-      <c r="AX4" s="112"/>
-      <c r="AY4" s="112">
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="110"/>
+      <c r="AW4" s="110"/>
+      <c r="AX4" s="110"/>
+      <c r="AY4" s="110">
         <f>AY5</f>
         <v>45824</v>
       </c>
-      <c r="AZ4" s="112"/>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="112"/>
-      <c r="BE4" s="112"/>
-      <c r="BF4" s="112">
+      <c r="AZ4" s="110"/>
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="110"/>
+      <c r="BE4" s="110"/>
+      <c r="BF4" s="110">
         <f>BF5</f>
         <v>45831</v>
       </c>
-      <c r="BG4" s="112"/>
-      <c r="BH4" s="112"/>
-      <c r="BI4" s="112"/>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="113"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="110"/>
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="111"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="114"/>
-      <c r="B5" s="115" t="s">
+      <c r="A5" s="112"/>
+      <c r="B5" s="113" t="s">
         <v>721</v>
       </c>
-      <c r="C5" s="117" t="s">
+      <c r="C5" s="115" t="s">
         <v>722</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="117" t="s">
         <v>723</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="117" t="s">
         <v>724</v>
       </c>
-      <c r="F5" s="119" t="s">
+      <c r="F5" s="117" t="s">
         <v>725</v>
       </c>
       <c r="I5" s="33">
@@ -44680,12 +44677,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
+      <c r="A6" s="112"/>
+      <c r="B6" s="114"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
       <c r="I6" s="36" t="str">
         <f t="shared" ref="I6:BL6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -44992,7 +44989,7 @@
       <c r="F8" s="46"/>
       <c r="G8" s="47"/>
       <c r="H8" s="48" t="str">
-        <f t="shared" ref="H8:H24" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H23" si="4">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="49"/>
@@ -45536,7 +45533,7 @@
     <row r="16" spans="1:64" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="94" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C16" s="66"/>
       <c r="D16" s="67">
@@ -45613,7 +45610,7 @@
     <row r="17" spans="1:64" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="94" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="67">
@@ -45765,17 +45762,15 @@
         <v>0</v>
       </c>
       <c r="E19" s="78">
-        <f>E9+15</f>
-        <v>45804</v>
+        <v>45808</v>
       </c>
       <c r="F19" s="78">
-        <f>E19+5</f>
-        <v>45809</v>
+        <v>45810</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="48">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I19" s="55"/>
       <c r="J19" s="55"/>
@@ -45844,17 +45839,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="78">
-        <f>F19+1</f>
-        <v>45810</v>
+        <v>45811</v>
       </c>
       <c r="F20" s="78">
-        <f>E20+4</f>
-        <v>45814</v>
+        <f>E20+5</f>
+        <v>45816</v>
       </c>
       <c r="G20" s="47"/>
       <c r="H20" s="48">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="55"/>
       <c r="J20" s="55"/>
@@ -45916,24 +45910,23 @@
     <row r="21" spans="1:64" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="75" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C21" s="76"/>
       <c r="D21" s="77">
         <v>0</v>
       </c>
       <c r="E21" s="78">
-        <f>E20+5</f>
-        <v>45815</v>
+        <f>F20+1</f>
+        <v>45817</v>
       </c>
       <c r="F21" s="78">
-        <f>E21+5</f>
-        <v>45820</v>
+        <v>45823</v>
       </c>
       <c r="G21" s="47"/>
       <c r="H21" s="48">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I21" s="55"/>
       <c r="J21" s="55"/>
@@ -45994,235 +45987,163 @@
     </row>
     <row r="22" spans="1:64" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="75" t="s">
-        <v>742</v>
-      </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77">
-        <v>0</v>
-      </c>
-      <c r="E22" s="78">
-        <f>F21+1</f>
-        <v>45821</v>
-      </c>
-      <c r="F22" s="78">
-        <f>E22+4</f>
-        <v>45825</v>
-      </c>
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
       <c r="G22" s="47"/>
-      <c r="H22" s="48">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55"/>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="55"/>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55"/>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="55"/>
-      <c r="AV22" s="55"/>
-      <c r="AW22" s="55"/>
-      <c r="AX22" s="55"/>
-      <c r="AY22" s="55"/>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="55"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="55"/>
-      <c r="BE22" s="55"/>
-      <c r="BF22" s="55"/>
-      <c r="BG22" s="55"/>
-      <c r="BH22" s="55"/>
-      <c r="BI22" s="55"/>
-      <c r="BJ22" s="55"/>
-      <c r="BK22" s="55"/>
-      <c r="BL22" s="55"/>
-    </row>
-    <row r="23" spans="1:64" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48" t="str">
+      <c r="H22" s="48" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49"/>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="49"/>
-      <c r="AQ23" s="49"/>
-      <c r="AR23" s="49"/>
-      <c r="AS23" s="49"/>
-      <c r="AT23" s="49"/>
-      <c r="AU23" s="49"/>
-      <c r="AV23" s="49"/>
-      <c r="AW23" s="49"/>
-      <c r="AX23" s="49"/>
-      <c r="AY23" s="49"/>
-      <c r="AZ23" s="49"/>
-      <c r="BA23" s="49"/>
-      <c r="BB23" s="49"/>
-      <c r="BC23" s="49"/>
-      <c r="BD23" s="49"/>
-      <c r="BE23" s="49"/>
-      <c r="BF23" s="49"/>
-      <c r="BG23" s="49"/>
-      <c r="BH23" s="49"/>
-      <c r="BI23" s="49"/>
-      <c r="BJ23" s="49"/>
-      <c r="BK23" s="49"/>
-      <c r="BL23" s="49"/>
-    </row>
-    <row r="24" spans="1:64" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="83" t="s">
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="49"/>
+      <c r="AF22" s="49"/>
+      <c r="AG22" s="49"/>
+      <c r="AH22" s="49"/>
+      <c r="AI22" s="49"/>
+      <c r="AJ22" s="49"/>
+      <c r="AK22" s="49"/>
+      <c r="AL22" s="49"/>
+      <c r="AM22" s="49"/>
+      <c r="AN22" s="49"/>
+      <c r="AO22" s="49"/>
+      <c r="AP22" s="49"/>
+      <c r="AQ22" s="49"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="49"/>
+      <c r="BA22" s="49"/>
+      <c r="BB22" s="49"/>
+      <c r="BC22" s="49"/>
+      <c r="BD22" s="49"/>
+      <c r="BE22" s="49"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="49"/>
+      <c r="BJ22" s="49"/>
+      <c r="BK22" s="49"/>
+      <c r="BL22" s="49"/>
+    </row>
+    <row r="23" spans="1:64" s="50" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="83" t="s">
         <v>730</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="88" t="str">
+      <c r="C23" s="84"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="88" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="89"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="89"/>
-      <c r="O24" s="89"/>
-      <c r="P24" s="89"/>
-      <c r="Q24" s="89"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="89"/>
-      <c r="AF24" s="89"/>
-      <c r="AG24" s="89"/>
-      <c r="AH24" s="89"/>
-      <c r="AI24" s="89"/>
-      <c r="AJ24" s="89"/>
-      <c r="AK24" s="89"/>
-      <c r="AL24" s="89"/>
-      <c r="AM24" s="89"/>
-      <c r="AN24" s="89"/>
-      <c r="AO24" s="89"/>
-      <c r="AP24" s="89"/>
-      <c r="AQ24" s="89"/>
-      <c r="AR24" s="89"/>
-      <c r="AS24" s="89"/>
-      <c r="AT24" s="89"/>
-      <c r="AU24" s="89"/>
-      <c r="AV24" s="89"/>
-      <c r="AW24" s="89"/>
-      <c r="AX24" s="89"/>
-      <c r="AY24" s="89"/>
-      <c r="AZ24" s="89"/>
-      <c r="BA24" s="89"/>
-      <c r="BB24" s="89"/>
-      <c r="BC24" s="89"/>
-      <c r="BD24" s="89"/>
-      <c r="BE24" s="89"/>
-      <c r="BF24" s="89"/>
-      <c r="BG24" s="89"/>
-      <c r="BH24" s="89"/>
-      <c r="BI24" s="89"/>
-      <c r="BJ24" s="89"/>
-      <c r="BK24" s="89"/>
-      <c r="BL24" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="89"/>
+      <c r="P23" s="89"/>
+      <c r="Q23" s="89"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="89"/>
+      <c r="AF23" s="89"/>
+      <c r="AG23" s="89"/>
+      <c r="AH23" s="89"/>
+      <c r="AI23" s="89"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="89"/>
+      <c r="AL23" s="89"/>
+      <c r="AM23" s="89"/>
+      <c r="AN23" s="89"/>
+      <c r="AO23" s="89"/>
+      <c r="AP23" s="89"/>
+      <c r="AQ23" s="89"/>
+      <c r="AR23" s="89"/>
+      <c r="AS23" s="89"/>
+      <c r="AT23" s="89"/>
+      <c r="AU23" s="89"/>
+      <c r="AV23" s="89"/>
+      <c r="AW23" s="89"/>
+      <c r="AX23" s="89"/>
+      <c r="AY23" s="89"/>
+      <c r="AZ23" s="89"/>
+      <c r="BA23" s="89"/>
+      <c r="BB23" s="89"/>
+      <c r="BC23" s="89"/>
+      <c r="BD23" s="89"/>
+      <c r="BE23" s="89"/>
+      <c r="BF23" s="89"/>
+      <c r="BG23" s="89"/>
+      <c r="BH23" s="89"/>
+      <c r="BI23" s="89"/>
+      <c r="BJ23" s="89"/>
+      <c r="BK23" s="89"/>
+      <c r="BL23" s="89"/>
+    </row>
+    <row r="24" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="90"/>
     </row>
     <row r="25" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="F25" s="92"/>
     </row>
     <row r="26" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="91"/>
-      <c r="F26" s="92"/>
-    </row>
-    <row r="27" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="93"/>
+      <c r="C26" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -46234,15 +46155,8 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D24">
+  <conditionalFormatting sqref="D7:D23">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -46256,7 +46170,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I4:BL22">
+  <conditionalFormatting sqref="I4:BL21">
     <cfRule type="expression" dxfId="6" priority="1">
       <formula>AND(TODAY()&gt;=I$5, TODAY()&lt;J$5)</formula>
     </cfRule>
@@ -46277,7 +46191,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL22">
+  <conditionalFormatting sqref="I19:BL21">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -46286,7 +46200,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A24" xr:uid="{739C7834-B0B9-F345-AA72-2868AF56B1DE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This row marks the end of the Project Schedule. DO NOT enter anything in this row. _x000a_Insert new rows ABOVE this one to continue building out your Project Schedule." sqref="A23" xr:uid="{739C7834-B0B9-F345-AA72-2868AF56B1DE}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Phase 3's sample block starts in cell B20." sqref="A18" xr:uid="{091C9009-69EB-C242-AC37-C036F6DB46AC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cell B14 contains the Phase 2 sample title. Enter a new title in cell B14._x000a_To delete the phase and work only from tasks, simply delete this row. To remove the phase, simply delete the row. Add tasks to previous phase by entering a new row above this one._x000a_" sqref="A14" xr:uid="{FADEDA0C-DBA0-7348-835C-63608902F4BC}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Rows 10 through 13 repeat the pattern from row 9. _x000a__x000a_Repeat the instructions from cell A9 for all task rows in this worksheet. _x000a__x000a_Continue entering tasks in cells A10 through A13 or go to cell A14 to learn more." sqref="A10" xr:uid="{5F0A5896-F217-ED42-87F8-FBC6698F38BE}"/>
@@ -46323,7 +46237,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D24</xm:sqref>
+          <xm:sqref>D7:D23</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
